--- a/biology/Zoologie/Cantharis_rufa/Cantharis_rufa.xlsx
+++ b/biology/Zoologie/Cantharis_rufa/Cantharis_rufa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cantharis rufa, la cantharide rouge, est une espèce d'insectes coléoptères appartenant à la famille des cantharides que l'on trouve dans toute l'Europe, jusqu'au cercle polaire et à l'est jusqu'en Sibérie.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette cantharide mesure de 8,5 à 10 millimètres de longueur. Sa tête et son pronotum sont de couleur rouge orangé, tandis que les élytres sont d'un brun jaunâtre. Le prothorax est large et arrondi. Ses antennes sont de couleur orange avec le bout plus foncé. Les pattes sont jaunâtres.
 </t>
@@ -542,7 +556,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cantharis alexandris Pic, 1914
 Cantharis analis Stephens, 1829
